--- a/CODES/output.xlsx
+++ b/CODES/output.xlsx
@@ -112,6 +112,7 @@
     <sheet name="internalG_202403_20240704_120739" sheetId="104" state="visible" r:id="rId104"/>
     <sheet name="internalG_202403_20240704_152816" sheetId="105" state="visible" r:id="rId105"/>
     <sheet name="internalG_201706_20240704_164832" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet name="internalG_202203_20240708_092922" sheetId="107" state="visible" r:id="rId107"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4984,6 +4985,461 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>ZScore internalG</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ashok Leyland</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.733802834022184</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Exide Inds.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.08369130715671085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eicher Motors</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3192544403966879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Escorts Kubota</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3216945409421984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabriel India</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3216123862934764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Federal-Mogul Go</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1285272532469696</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hero Motocorp</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.133563765352544</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M &amp; M</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4594610997694858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.08700485950684173</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sundram Fasten.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5801785827689785</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SML ISUZU</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Talbros Auto.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4851435559500409</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tata Motors</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.267829488434073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wheels India</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2421385824716505</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Automotive Axles</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2882434901681703</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rico Auto Inds</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.06526037219609834</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lumax Industries</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3240852582922838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Banco Products</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2586639765520528</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JTEKT India</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04052936221234273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The Hi-Tech Gear</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.4177689757272506</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Subros</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.07780167971785491</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jamna Auto Inds.</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.54838873046381</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Steel Str. Wheel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8153085922597751</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>India Nipp.Elec.</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2010954757970197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L G Balakrishnan</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8538821501671139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>India Motor Part</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.06167739071057584</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Amara Raja Ener.</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.381020093190795</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VST Till. Tract.</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4829164081214923</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Automotive Stamp</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.264508510574705</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.05219769614133872</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Suprajit Engg.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5982704872471191</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TVS Motor Co.</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6846382901076343</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Uno Minda</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2535486193175328</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Atul Auto</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.9988936562703058</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Minda Corp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4338878778989922</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Olectra Greentec</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.006953968523011026</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JBM Auto</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8664119230226583</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lumax Auto Tech.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3106363101626806</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fiem Industries</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1504975517460563</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rane (Madras)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.6122836520099416</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ZF Commercial</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.08942390862915661</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bajaj Auto</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.01391397486454518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
